--- a/data/trans_bre/P57GLOBAL_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1001006590375139</v>
+        <v>-0.1474303150744672</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7414293668075665</v>
+        <v>0.5508987378294827</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.591439334410701</v>
+        <v>2.457360121081028</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1582343008923004</v>
+        <v>0.0853988890238076</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.001574077995667583</v>
+        <v>-0.002394334039077977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01013075668464136</v>
+        <v>0.007138661420464291</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03065516406953551</v>
+        <v>0.0291429647907788</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.002650782178866459</v>
+        <v>0.0009985659923574268</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.851162448295526</v>
+        <v>6.659263851441498</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.005754951634275</v>
+        <v>8.327869524714208</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.467779074679163</v>
+        <v>9.51218054197969</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.99028720115323</v>
+        <v>9.583004710967783</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09312867666899041</v>
+        <v>0.09019915189768746</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1148706091626362</v>
+        <v>0.1185451533224952</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1176670152462294</v>
+        <v>0.1190046734784832</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1389885105568693</v>
+        <v>0.1492801222859999</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.500728641715078</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.12411637061981</v>
+        <v>1.124116370619821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01632590874503496</v>
@@ -749,7 +749,7 @@
         <v>0.03004419550510409</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.01750662749417409</v>
+        <v>0.01750662749417426</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.985470223119951</v>
+        <v>-2.310797999217257</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.640794647476624</v>
+        <v>5.661174096930369</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07346844505677901</v>
+        <v>0.2451665752919647</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.885193207731199</v>
+        <v>-1.982675343611032</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02831842677693237</v>
+        <v>-0.03376785605839949</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08173851093258262</v>
+        <v>0.08360949239675179</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0008080086114511748</v>
+        <v>0.002877095777333763</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02877157506571473</v>
+        <v>-0.03011279174038143</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.472586586470561</v>
+        <v>4.662115772743793</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.48464453203252</v>
+        <v>11.5254090843023</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.604232157085624</v>
+        <v>4.611706394926795</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.372967664968523</v>
+        <v>4.506876264562667</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06729026431765608</v>
+        <v>0.06988473525498445</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1748805469277746</v>
+        <v>0.1759977876629955</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05582772315339763</v>
+        <v>0.0560704078571503</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.07028758006234302</v>
+        <v>0.07294885399226977</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.003214966621602</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-4.189136614053979</v>
+        <v>-4.189136614053968</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.05644841494819246</v>
@@ -849,7 +849,7 @@
         <v>-0.01308114713938617</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.06770141350817427</v>
+        <v>-0.0677014135081741</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.507111857095877</v>
+        <v>-9.829357122495473</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.224701640884653</v>
+        <v>-7.164005698730963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.473731715351211</v>
+        <v>-6.842409289804392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.209063683931079</v>
+        <v>-9.094401813971215</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1342257353376285</v>
+        <v>-0.138893168581237</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08828215553216481</v>
+        <v>-0.1009719817531863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08112839777587738</v>
+        <v>-0.08703839905621912</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1405281009728211</v>
+        <v>-0.141810192132354</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.391653269971079</v>
+        <v>2.426354168731998</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.706478639187856</v>
+        <v>6.24985684156639</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.967112283786551</v>
+        <v>4.303028108422874</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.356930605237121</v>
+        <v>0.6987624034655302</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03570197587179163</v>
+        <v>0.03692156623937778</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1071757411371682</v>
+        <v>0.09675023489221123</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06874104879228193</v>
+        <v>0.05841106423827302</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.02344440258463258</v>
+        <v>0.01195094091174584</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.886538280762818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.033477776753267</v>
+        <v>1.033477776753255</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02646873833756958</v>
@@ -949,7 +949,7 @@
         <v>0.03525573416827064</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0160759456788786</v>
+        <v>0.01607594567887842</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2537779414235032</v>
+        <v>-0.2467497475477217</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.257233066328311</v>
+        <v>4.148626799338995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.118013364646155</v>
+        <v>1.194707216904247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.39181882448393</v>
+        <v>-1.446913279104279</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.00358010557111627</v>
+        <v>-0.003394210479591742</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06038988056633812</v>
+        <v>0.05924653633949204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01350418369087583</v>
+        <v>0.01445854465944882</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02168870596306191</v>
+        <v>-0.02200944841554331</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.024409413482974</v>
+        <v>4.195553392874501</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.795939385995723</v>
+        <v>8.722714411923542</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.482127984403594</v>
+        <v>4.618707318888279</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.380188252730001</v>
+        <v>3.322395301525398</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05751661896004386</v>
+        <v>0.06124635825815861</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1302559803748957</v>
+        <v>0.1293656054295147</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05515288782715029</v>
+        <v>0.05728849328095847</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05326839438981483</v>
+        <v>0.05316133996537385</v>
       </c>
     </row>
     <row r="16">
